--- a/testdata5.xlsx
+++ b/testdata5.xlsx
@@ -1,23 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27309"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DanWang/Desktop/FE_BOOKS/FE800/code/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="19395" windowHeight="9870" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="22720" windowHeight="14200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="114210" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="24">
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>hourly</t>
+  </si>
+  <si>
+    <t>15min</t>
+  </si>
+  <si>
+    <t>Trans</t>
+  </si>
+  <si>
+    <t>Rec</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>Direct</t>
+  </si>
+  <si>
+    <t>Cros</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>FRC</t>
+  </si>
+  <si>
+    <t>GRM</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Speacial events</t>
+  </si>
+  <si>
+    <t>Brexit</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -28,13 +121,33 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,21 +159,76 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -107,12 +275,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -139,14 +307,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -173,6 +342,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -348,16 +518,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:M31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:M31"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="8.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:13">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C2">
         <v>96.719735582883388</v>
       </c>
@@ -371,7 +561,13 @@
         <v>88.334547746654195</v>
       </c>
     </row>
-    <row r="3" spans="3:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C3">
         <v>46.402102506801107</v>
       </c>
@@ -385,7 +581,10 @@
         <v>91.877942158690345</v>
       </c>
     </row>
-    <row r="4" spans="3:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C4">
         <v>91.779906920494469</v>
       </c>
@@ -399,7 +598,42 @@
         <v>43.270154402302992</v>
       </c>
     </row>
-    <row r="7" spans="3:13">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C7">
         <v>-2.0148656375071551E-2</v>
       </c>
@@ -434,42 +668,45 @@
         <v>-4.0996170349495945E-2</v>
       </c>
     </row>
-    <row r="8" spans="3:13">
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C9">
         <v>93.56022887516518</v>
       </c>
@@ -504,7 +741,13 @@
         <v>37.597818550621675</v>
       </c>
     </row>
-    <row r="10" spans="3:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C10">
         <v>83.274658439550407</v>
       </c>
@@ -539,7 +782,10 @@
         <v>99.275738827837245</v>
       </c>
     </row>
-    <row r="11" spans="3:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C11">
         <v>24.779987938309496</v>
       </c>
@@ -574,7 +820,7 @@
         <v>87.763460585164367</v>
       </c>
     </row>
-    <row r="12" spans="3:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C12">
         <v>0</v>
       </c>
@@ -609,42 +855,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:13">
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:13">
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C14">
         <v>93.423835142335335</v>
       </c>
@@ -679,7 +928,13 @@
         <v>27.500010520922537</v>
       </c>
     </row>
-    <row r="15" spans="3:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C15">
         <v>90.22751635518577</v>
       </c>
@@ -714,7 +969,10 @@
         <v>99.86078390951954</v>
       </c>
     </row>
-    <row r="16" spans="3:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C16">
         <v>96.081191477389083</v>
       </c>
@@ -749,7 +1007,7 @@
         <v>24.903187608276202</v>
       </c>
     </row>
-    <row r="17" spans="3:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C17">
         <v>0</v>
       </c>
@@ -784,42 +1042,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:13">
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13">
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C19">
         <v>0.26946977776408482</v>
       </c>
@@ -854,7 +1115,13 @@
         <v>5495.8391287871318</v>
       </c>
     </row>
-    <row r="20" spans="3:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C20">
         <v>0.14976316665777756</v>
       </c>
@@ -889,7 +1156,10 @@
         <v>1.6178342467309534</v>
       </c>
     </row>
-    <row r="21" spans="3:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C21">
         <v>2.4189891825813401</v>
       </c>
@@ -924,7 +1194,7 @@
         <v>4.5003029907086177E-2</v>
       </c>
     </row>
-    <row r="22" spans="3:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C22">
         <v>0</v>
       </c>
@@ -959,42 +1229,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:13">
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13">
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C24">
         <v>3.9149922557526264</v>
       </c>
@@ -1029,7 +1302,13 @@
         <v>3311.287483037243</v>
       </c>
     </row>
-    <row r="25" spans="3:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C25">
         <v>0.74566348945262739</v>
       </c>
@@ -1064,7 +1343,10 @@
         <v>221.75935466149377</v>
       </c>
     </row>
-    <row r="26" spans="3:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C26">
         <v>0.79689594729266799</v>
       </c>
@@ -1099,7 +1381,7 @@
         <v>0.32277276340686573</v>
       </c>
     </row>
-    <row r="27" spans="3:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C27">
         <v>0</v>
       </c>
@@ -1134,42 +1416,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:13">
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:13">
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C29">
         <v>-3.1844620335167111</v>
       </c>
@@ -1204,7 +1489,13 @@
         <v>-8806.1266118243748</v>
       </c>
     </row>
-    <row r="30" spans="3:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C30">
         <v>0.10457334388959505</v>
       </c>
@@ -1239,7 +1530,10 @@
         <v>-222.37718890822472</v>
       </c>
     </row>
-    <row r="31" spans="3:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C31">
         <v>-2.2158851298740081</v>
       </c>
@@ -1282,16 +1576,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:M31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:M31"/>
+      <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="8.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:13">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C2">
         <v>6.522951434801566E-2</v>
       </c>
@@ -1305,7 +1619,13 @@
         <v>3.191218750814185E-2</v>
       </c>
     </row>
-    <row r="3" spans="3:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C3">
         <v>8.3543193949922288E-3</v>
       </c>
@@ -1319,7 +1639,10 @@
         <v>0.55611332739397035</v>
       </c>
     </row>
-    <row r="4" spans="3:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C4">
         <v>0.14778814017533631</v>
       </c>
@@ -1333,7 +1656,42 @@
         <v>0.16195172775024033</v>
       </c>
     </row>
-    <row r="7" spans="3:13">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C7">
         <v>-2.0148656375071551E-2</v>
       </c>
@@ -1368,42 +1726,45 @@
         <v>-4.0996170349495945E-2</v>
       </c>
     </row>
-    <row r="8" spans="3:13">
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C9">
         <v>9.7997290161080356E-4</v>
       </c>
@@ -1438,7 +1799,13 @@
         <v>1.7710183965530077E-2</v>
       </c>
     </row>
-    <row r="10" spans="3:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C10">
         <v>6.2717797965112735E-3</v>
       </c>
@@ -1473,7 +1840,10 @@
         <v>3.5849490361260318E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C11">
         <v>0.38874136356337313</v>
       </c>
@@ -1508,7 +1878,7 @@
         <v>0.31440151049843834</v>
       </c>
     </row>
-    <row r="12" spans="3:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C12">
         <v>0</v>
       </c>
@@ -1543,42 +1913,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:13">
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:13">
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C14">
         <v>0.17879107618232257</v>
       </c>
@@ -1613,7 +1986,13 @@
         <v>6.2700721000396933E-2</v>
       </c>
     </row>
-    <row r="15" spans="3:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C15">
         <v>9.3483550153545258E-3</v>
       </c>
@@ -1648,7 +2027,10 @@
         <v>1.214050419052028</v>
       </c>
     </row>
-    <row r="16" spans="3:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C16">
         <v>2.8220026746989375E-2</v>
       </c>
@@ -1683,7 +2065,7 @@
         <v>5.0121935228380826E-3</v>
       </c>
     </row>
-    <row r="17" spans="3:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C17">
         <v>0</v>
       </c>
@@ -1718,42 +2100,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:13">
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13">
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C19">
         <v>1.0039218245085191</v>
       </c>
@@ -1788,7 +2173,13 @@
         <v>1.0286566530627019</v>
       </c>
     </row>
-    <row r="20" spans="3:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C20">
         <v>0.9922400302648432</v>
       </c>
@@ -1823,7 +2214,10 @@
         <v>0.99384437061872322</v>
       </c>
     </row>
-    <row r="21" spans="3:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C21">
         <v>0.90406540848923955</v>
       </c>
@@ -1858,7 +2252,7 @@
         <v>0.91474280726117507</v>
       </c>
     </row>
-    <row r="22" spans="3:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C22">
         <v>0</v>
       </c>
@@ -1893,42 +2287,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:13">
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13">
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C24">
         <v>9.8382582458050535E-6</v>
       </c>
@@ -1963,7 +2360,13 @@
         <v>1.8220925522537167E-4</v>
       </c>
     </row>
-    <row r="25" spans="3:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C25">
         <v>6.2235012994019085E-5</v>
       </c>
@@ -1998,7 +2401,10 @@
         <v>3.5641591514003158E-4</v>
       </c>
     </row>
-    <row r="26" spans="3:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C26">
         <v>3.5281917371339138E-3</v>
       </c>
@@ -2033,7 +2439,7 @@
         <v>2.8850357993364874E-3</v>
       </c>
     </row>
-    <row r="27" spans="3:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C27">
         <v>0</v>
       </c>
@@ -2068,42 +2474,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:13">
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:13">
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C29">
         <v>-3.9316627667648832E-3</v>
       </c>
@@ -2138,7 +2547,13 @@
         <v>-2.8838862317927302E-2</v>
       </c>
     </row>
-    <row r="30" spans="3:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C30">
         <v>7.697734722162783E-3</v>
       </c>
@@ -2173,7 +2588,10 @@
         <v>5.7992134661367517E-3</v>
       </c>
     </row>
-    <row r="31" spans="3:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C31">
         <v>9.2406399773626538E-2</v>
       </c>
@@ -2216,16 +2634,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:M31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:M31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="8.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:13">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C2">
         <v>0.25734434413445134</v>
       </c>
@@ -2238,8 +2682,20 @@
       <c r="F2">
         <v>0.58516989944415743</v>
       </c>
-    </row>
-    <row r="3" spans="3:13">
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C3">
         <v>1.8239035864263044E-2</v>
       </c>
@@ -2253,11 +2709,14 @@
         <v>0.61422406238398319</v>
       </c>
     </row>
-    <row r="4" spans="3:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C4">
         <v>0.22520265114333937</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>48.768800086458441</v>
       </c>
       <c r="E4">
@@ -2267,7 +2726,42 @@
         <v>0.17181500033729652</v>
       </c>
     </row>
-    <row r="7" spans="3:13">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C7">
         <v>-2.0148656375071551E-2</v>
       </c>
@@ -2302,392 +2796,349 @@
         <v>-4.0996170349495945E-2</v>
       </c>
     </row>
-    <row r="8" spans="3:13">
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13">
-      <c r="C9">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
         <v>0.27075372227632521</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>0.22534560037295476</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>0.27605238337780685</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>3.0040852984573553E-3</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>4.9415788190144659E-3</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>2.9662074689695584E-4</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>1.9190519206809234E-3</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>1.5077182959892766E-3</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>1.5607675883690413</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>8.1356839618891716E-2</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>0.11936824092292231</v>
       </c>
     </row>
-    <row r="10" spans="3:13">
-      <c r="C10">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
         <v>1.5061391958551615E-2</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>1.4235748794760909E-2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>2.5453058564962324E-2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>0.12842447328814952</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>0.12504594774123426</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>5.7662987748100934E-2</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>0.21754491331787973</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>4.3684769504078416E-2</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>0.89006085271386004</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>0.89083320534467758</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>4.8755105894479317E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:13">
-      <c r="C11">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
         <v>0.39174393476044073</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>1.4620145642781137E-2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>0.26843744638191319</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>27.013694495272794</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <v>58.134391332455806</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <v>23.22716883146968</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>2.5741957675617266</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>1.7832116627222296E-4</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <v>1.079993520330714E-2</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>0.16272000105330311</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="3">
         <v>0.34141221895921925</v>
       </c>
     </row>
-    <row r="12" spans="3:13">
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:13">
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:13">
-      <c r="C14">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3">
         <v>0.44163121974845587</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>5.400681907129247E-2</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>0.27593897809654322</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>1.2306257208289908E-3</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>9.7070990947334163E-4</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>6.0405571893465248E-3</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <v>1.5070676546705243E-3</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <v>1.9198804231852159E-3</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <v>2.8721683532704139E-2</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="3">
         <v>1.5932772147652805</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="3">
         <v>0.1265793778361167</v>
       </c>
     </row>
-    <row r="15" spans="3:13">
-      <c r="C15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3">
         <v>2.564535385173038E-2</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>1.6993611843521089E-2</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>1.2012223914458402E-2</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>0.1185329801515157</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>0.13784773397183239</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>5.4417226679232565E-2</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <v>4.4073569947921408E-2</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <v>0.21562911520609379</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <v>0.30235317511051729</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="3">
         <v>0.26373327000616326</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="3">
         <v>1.2799675068805945</v>
       </c>
     </row>
-    <row r="16" spans="3:13">
-      <c r="C16">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3">
         <v>0.25549056430338357</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>0.40665025543020034</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>1.2847247635654395E-2</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>37.917305683069316</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>6.2524457924618817</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>75.730323442712447</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <v>1.8537226372637087E-4</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>2.4787066758686649</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <v>0.18585100493392551</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="3">
         <v>0.32280844638702422</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="3">
         <v>6.2695068226017725E-3</v>
       </c>
     </row>
-    <row r="17" spans="3:13">
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13">
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C19">
         <v>1.00341261817561</v>
       </c>
@@ -2722,7 +3173,13 @@
         <v>1.0303977617395808</v>
       </c>
     </row>
-    <row r="20" spans="3:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C20">
         <v>0.99214148028280846</v>
       </c>
@@ -2757,7 +3214,10 @@
         <v>0.9938447318301713</v>
       </c>
     </row>
-    <row r="21" spans="3:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C21">
         <v>0.90411804406422702</v>
       </c>
@@ -2792,77 +3252,45 @@
         <v>0.91407284073729922</v>
       </c>
     </row>
-    <row r="22" spans="3:13">
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13">
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C24">
         <v>2.7241527584948642E-3</v>
       </c>
@@ -2897,7 +3325,13 @@
         <v>1.2314376281324613E-3</v>
       </c>
     </row>
-    <row r="25" spans="3:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C25">
         <v>1.4945282680481974E-4</v>
       </c>
@@ -2932,7 +3366,10 @@
         <v>4.847864095578417E-4</v>
       </c>
     </row>
-    <row r="26" spans="3:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C26">
         <v>3.5557570633267944E-3</v>
       </c>
@@ -2967,77 +3404,45 @@
         <v>3.1314475129041513E-3</v>
       </c>
     </row>
-    <row r="27" spans="3:13">
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13">
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C29">
         <v>-6.1367709341048696E-3</v>
       </c>
@@ -3072,7 +3477,13 @@
         <v>-3.1629199367713218E-2</v>
       </c>
     </row>
-    <row r="30" spans="3:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C30">
         <v>7.7090668903867171E-3</v>
       </c>
@@ -3107,7 +3518,10 @@
         <v>5.6704817602708565E-3</v>
       </c>
     </row>
-    <row r="31" spans="3:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C31">
         <v>9.2326198872446183E-2</v>
       </c>
@@ -3145,6 +3559,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>